--- a/biology/Zoologie/Apostichopus/Apostichopus.xlsx
+++ b/biology/Zoologie/Apostichopus/Apostichopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apostichopus est un genre de concombres de mer de la famille des Stichopodidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des holothuries stichopodidées de forme allongée, dont le corps est plus ou moins couvert de grosses papilles coniques contractiles, et de petites papilles rétractiles.
 On les trouve principalement dans le Pacifique nord et sur les côtes américaines et japonaises (où elles sont souvent pêchées pour la consommation).
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (25 novembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (25 novembre 2017) :
 Apostichopus californicus (Stimpson, 1857) -- Californie
 Apostichopus japonicus (Selenka, 1867) -- Japon
 Apostichopus johnsoni (Théel, 1886) -- Golfe du Mexique
